--- a/meeting_attendance.xlsx
+++ b/meeting_attendance.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julietwield/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julietwield/Desktop/julietwield-project3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5211B4AB-21D9-9F4E-802A-57D5BD8B1AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEFD4C0-887B-0045-9601-5D492070DC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="15840" windowHeight="21600" xr2:uid="{7B038190-2AF9-6F4E-B15F-676D94CBC681}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="15840" windowHeight="19780" xr2:uid="{7B038190-2AF9-6F4E-B15F-676D94CBC681}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Attendance</t>
   </si>
@@ -47,6 +46,9 @@
   </si>
   <si>
     <t>Time</t>
+  </si>
+  <si>
+    <t>all attended</t>
   </si>
 </sst>
 </file>
@@ -403,7 +405,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -431,6 +433,9 @@
       <c r="B2" s="2">
         <v>0.20833333333333334</v>
       </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1">

--- a/meeting_attendance.xlsx
+++ b/meeting_attendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julietwield/Desktop/julietwield-project3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEFD4C0-887B-0045-9601-5D492070DC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC303E54-26F0-9044-916C-5524BEC89FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="15840" windowHeight="19780" xr2:uid="{7B038190-2AF9-6F4E-B15F-676D94CBC681}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>Attendance</t>
   </si>
@@ -48,7 +48,13 @@
     <t>Time</t>
   </si>
   <si>
-    <t>all attended</t>
+    <t>Miguel</t>
+  </si>
+  <si>
+    <t>Juliet</t>
+  </si>
+  <si>
+    <t>Amika</t>
   </si>
 </sst>
 </file>
@@ -405,7 +411,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -434,6 +440,16 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -443,6 +459,14 @@
       </c>
       <c r="B5" s="2">
         <v>0.4375</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">

--- a/meeting_attendance.xlsx
+++ b/meeting_attendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julietwield/Desktop/julietwield-project3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC303E54-26F0-9044-916C-5524BEC89FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D4E93D-2CDD-F346-BAC3-FD60F06A7BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="15840" windowHeight="19780" xr2:uid="{7B038190-2AF9-6F4E-B15F-676D94CBC681}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>Attendance</t>
   </si>
@@ -411,7 +411,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -469,6 +469,11 @@
         <v>5</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>45036</v>

--- a/meeting_attendance.xlsx
+++ b/meeting_attendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julietwield/Desktop/julietwield-project3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FE4B38-FC1B-5144-8E9E-DF4C34E517FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D2A252-B41D-CB47-A38C-26CA261C1FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="15840" windowHeight="19780" xr2:uid="{7B038190-2AF9-6F4E-B15F-676D94CBC681}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
   <si>
     <t>Attendance</t>
   </si>
@@ -411,7 +411,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -469,12 +469,30 @@
         <v>5</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>45036</v>
       </c>
       <c r="B8" s="2">
         <v>0.20833333333333334</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">

--- a/meeting_attendance.xlsx
+++ b/meeting_attendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julietwield/Desktop/julietwield-project3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D2A252-B41D-CB47-A38C-26CA261C1FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B2F107-B0F8-144E-8A53-3D37D76C08FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="15840" windowHeight="19780" xr2:uid="{7B038190-2AF9-6F4E-B15F-676D94CBC681}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>Attendance</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Amika</t>
+  </si>
+  <si>
+    <t>all here</t>
   </si>
 </sst>
 </file>
@@ -502,6 +505,9 @@
       <c r="B11" s="2">
         <v>8.3333333333333329E-2</v>
       </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1">

--- a/meeting_attendance.xlsx
+++ b/meeting_attendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julietwield/Desktop/julietwield-project3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B2F107-B0F8-144E-8A53-3D37D76C08FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E4D06B-42B2-AC43-988B-1D2E4591CF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="15840" windowHeight="19780" xr2:uid="{7B038190-2AF9-6F4E-B15F-676D94CBC681}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
   <si>
     <t>Attendance</t>
   </si>
@@ -414,7 +414,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -516,6 +516,9 @@
       <c r="B14" s="2">
         <v>0.4375</v>
       </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">

--- a/meeting_attendance.xlsx
+++ b/meeting_attendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julietwield/Desktop/julietwield-project3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E4D06B-42B2-AC43-988B-1D2E4591CF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A308AE3-1A70-F64F-B30D-584AD6D9625E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="15840" windowHeight="19780" xr2:uid="{7B038190-2AF9-6F4E-B15F-676D94CBC681}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
   <si>
     <t>Attendance</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>all here</t>
+  </si>
+  <si>
+    <t>moved to 4/29</t>
   </si>
 </sst>
 </file>
@@ -413,8 +416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B9521F-BD85-6F42-AEF7-CA199ABB8FE4}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -520,23 +523,29 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>45043</v>
       </c>
       <c r="B17" s="2">
         <v>0.20833333333333334</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>45045</v>
       </c>
       <c r="B20" s="2">
         <v>8.3333333333333329E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1</v>
       </c>
